--- a/documents/06_ファイル構成一覧表_E4チーム[村人]0607.xlsx
+++ b/documents/06_ファイル構成一覧表_E4チーム[村人]0607.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A438D-2A76-4192-B4AA-D11F4ABCE05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74FE9B8-DC61-4B2F-BB39-C24CD5E34FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,13 @@
     <sheet name="新規登録完了画面" sheetId="14" r:id="rId4"/>
     <sheet name="受講者メイン" sheetId="8" r:id="rId5"/>
     <sheet name="講師・事務局メイン" sheetId="9" r:id="rId6"/>
-    <sheet name="投稿画面" sheetId="10" r:id="rId7"/>
-    <sheet name="検索画面" sheetId="12" r:id="rId8"/>
-    <sheet name="管理画面" sheetId="11" r:id="rId9"/>
-    <sheet name="MyPage" sheetId="13" r:id="rId10"/>
+    <sheet name="個別投稿画面" sheetId="10" r:id="rId7"/>
+    <sheet name="全体投稿画面" sheetId="15" r:id="rId8"/>
+    <sheet name="検索画面" sheetId="12" r:id="rId9"/>
+    <sheet name="最近の質問一覧" sheetId="11" r:id="rId10"/>
+    <sheet name="全体公開一覧" sheetId="16" r:id="rId11"/>
+    <sheet name="個別公開一覧" sheetId="17" r:id="rId12"/>
+    <sheet name="MyPage" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -410,27 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿jsp</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>management_menu.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Search.jsp</t>
   </si>
   <si>
@@ -545,6 +527,376 @@
     <t>新規登録画面用css</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別投稿jsp</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体投稿jsp</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近の質問一覧jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recentquestions.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>individual.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question_allpost.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録完了画面用js</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者画面用js</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者画面用css</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者画面用</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師・事務局画面用</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師・事務局画面用js</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師・事務局画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別投稿画面用</t>
+    <rPh sb="0" eb="4">
+      <t>コベツトウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別投稿画面用js</t>
+    <rPh sb="0" eb="4">
+      <t>コベツトウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別投稿画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>コベツトウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面用</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面用js</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面用css</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近の質問一覧画面用</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近の質問一覧画面用js</t>
+    <rPh sb="7" eb="10">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近の質問一覧画面用css</t>
+    <rPh sb="7" eb="10">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体公開一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体公開一覧画面用</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体公開一覧画面用js</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体公開一覧画面用css</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別公開一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用js</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用css</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体投稿画面用</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体投稿画面用js</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体投稿画面用css</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別公開一覧画面用</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別公開一覧画面用js</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別公開一覧画面用css</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯塚さん</t>
+  </si>
+  <si>
+    <t>飯塚さん</t>
+    <rPh sb="0" eb="2">
+      <t>イイヅカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村さん・渡辺さん</t>
+  </si>
+  <si>
+    <t>野村さん・渡辺さん</t>
+    <rPh sb="0" eb="2">
+      <t>ノムラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村さん・渡辺さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今埜さん</t>
+  </si>
+  <si>
+    <t>今埜さん</t>
+    <rPh sb="0" eb="2">
+      <t>コンノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薗</t>
+  </si>
+  <si>
+    <t>薗</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村さん</t>
+  </si>
+  <si>
+    <t>野村さん</t>
+    <rPh sb="0" eb="2">
+      <t>ノムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,7 +905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,15 +918,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -630,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,9 +987,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,7 +1306,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1341,11 +1681,849 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F95FE-5E14-496F-998F-920E09E1EB61}">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30592ECC-17D1-4F18-A404-0302544F71C6}">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74563214-7645-4B20-B90C-C7358340A108}">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8AB07F-3D18-492F-9717-C76C6544FE5A}">
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1389,13 +2567,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1403,55 +2581,105 @@
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1575,7 +2803,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1618,14 +2846,14 @@
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1643,10 +2871,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1667,7 +2895,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1685,10 +2913,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1709,7 +2937,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1727,10 +2955,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1853,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32EA8CE-DB44-4FA3-B91A-262ACDE74E14}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1904,7 +3132,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1919,13 +3147,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1946,7 +3174,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1961,13 +3189,13 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1988,7 +3216,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -2003,13 +3231,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -2134,7 +3362,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2178,13 +3406,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -2192,55 +3420,105 @@
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -2293,8 +3571,8 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -2304,8 +3582,8 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -2363,8 +3641,568 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F9F64-8AAB-4080-A2C8-61048A5F16BA}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E428F47A-8C2A-4D0B-B2F6-16AE59AAB09A}">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1421AE07-8E42-40FD-A82E-376368D42B99}">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2408,13 +4246,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -2422,55 +4260,105 @@
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -2589,12 +4477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E428F47A-8C2A-4D0B-B2F6-16AE59AAB09A}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489DE35-241C-43A5-A699-FF6080B057A0}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2638,13 +4526,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -2652,55 +4540,105 @@
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -2819,12 +4757,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1421AE07-8E42-40FD-A82E-376368D42B99}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB0DC0E-F183-445F-A5E4-08C888F671F3}">
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2868,13 +4806,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -2882,515 +4820,105 @@
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB0DC0E-F183-445F-A5E4-08C888F671F3}">
-  <dimension ref="B2:G18"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F95FE-5E14-496F-998F-920E09E1EB61}">
-  <dimension ref="B2:G18"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -3510,21 +5038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3695,10 +5208,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3721,20 +5260,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>